--- a/res/metadata.xlsx
+++ b/res/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixianmin01/go/src/github.com/lixianmin/metadata/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixianmin01/go/src/github.com/lixianmin/metadata/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E91FB-A8D7-224B-8A22-AD4DB19BE3D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8586D7-F97F-A34E-B63A-7F744F583387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12980" yWindow="-22060" windowWidth="32280" windowHeight="19440" xr2:uid="{752D0972-6813-DB44-A492-4207E7DA6E87}"/>
   </bookViews>
@@ -25,75 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>小熊摘果子</t>
-  </si>
-  <si>
-    <t>学霸课堂</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>读心术</t>
   </si>
   <si>
-    <t>口算游戏</t>
-  </si>
-  <si>
-    <t>小度种树</t>
-  </si>
-  <si>
-    <t>魔鬼厨房</t>
-  </si>
-  <si>
-    <t>头脑王者</t>
-  </si>
-  <si>
     <t>虎牙</t>
   </si>
   <si>
     <t>猜图画</t>
   </si>
   <si>
-    <t>青蛙过河</t>
-  </si>
-  <si>
     <t>火眼金睛</t>
   </si>
   <si>
-    <t>汤姆猫</t>
-  </si>
-  <si>
-    <t>小度农庄</t>
-  </si>
-  <si>
     <t>猜明星</t>
   </si>
   <si>
-    <t>冒险挖矿</t>
-  </si>
-  <si>
     <t>成语状元</t>
   </si>
   <si>
-    <t>扫雷</t>
-  </si>
-  <si>
     <t>电子宠物</t>
   </si>
   <si>
     <t>宝宝超市</t>
   </si>
   <si>
-    <t>脑筋急转弯</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>hello|panda</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>{"Name":"Panda", "Age":36}</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>没有tiltle的列，会被忽略</t>
   </si>
 </sst>
 </file>
@@ -490,270 +469,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D15B26-2A36-0348-A215-26AD4D2EA631}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>24677</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3237</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>6034</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2157</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16040</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5251</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13780</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6920</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>2635</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2843</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13480</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3684</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6953</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5128</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14737</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2927</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4205</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4812</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2671</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6524</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/res/metadata.xlsx
+++ b/res/metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixianmin01/go/src/github.com/lixianmin/metadata/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8586D7-F97F-A34E-B63A-7F744F583387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F00EA7-41E9-B948-ACE3-8A2860B53885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="-22060" windowWidth="32280" windowHeight="19440" xr2:uid="{752D0972-6813-DB44-A492-4207E7DA6E87}"/>
+    <workbookView xWindow="12980" yWindow="-22060" windowWidth="32280" windowHeight="19440" activeTab="1" xr2:uid="{752D0972-6813-DB44-A492-4207E7DA6E87}"/>
   </bookViews>
   <sheets>
     <sheet name="TestTemplate" sheetId="3" r:id="rId1"/>
+    <sheet name="TestConfig" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>读心术</t>
   </si>
@@ -73,6 +74,18 @@
   </si>
   <si>
     <t>没有tiltle的列，会被忽略</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>this is an notice</t>
+  </si>
+  <si>
+    <t>som tips</t>
   </si>
 </sst>
 </file>
@@ -471,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D15B26-2A36-0348-A215-26AD4D2EA631}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -639,4 +652,39 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B65C32-B24F-DD4D-8C9E-0D82C8FDCAEA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>